--- a/alphabetically/xlsx/province.xlsx
+++ b/alphabetically/xlsx/province.xlsx
@@ -375,366 +375,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>name</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
         <v>slug</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>آذربایجان شرقی</v>
       </c>
       <c r="B2" t="str">
-        <v>آذربایجان شرقی</v>
-      </c>
-      <c r="C2" t="str">
         <v>آذربایجان-شرقی</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>آذربایجان غربی</v>
       </c>
       <c r="B3" t="str">
-        <v>آذربایجان غربی</v>
-      </c>
-      <c r="C3" t="str">
         <v>آذربایجان-غربی</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>اردبیل</v>
       </c>
       <c r="B4" t="str">
         <v>اردبیل</v>
       </c>
-      <c r="C4" t="str">
-        <v>اردبیل</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
+        <v>اصفهان</v>
       </c>
       <c r="B5" t="str">
         <v>اصفهان</v>
       </c>
-      <c r="C5" t="str">
-        <v>اصفهان</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5</v>
+        <v>البرز</v>
       </c>
       <c r="B6" t="str">
         <v>البرز</v>
       </c>
-      <c r="C6" t="str">
-        <v>البرز</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6</v>
+        <v>ایلام</v>
       </c>
       <c r="B7" t="str">
         <v>ایلام</v>
       </c>
-      <c r="C7" t="str">
-        <v>ایلام</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>7</v>
+        <v>بوشهر</v>
       </c>
       <c r="B8" t="str">
         <v>بوشهر</v>
       </c>
-      <c r="C8" t="str">
-        <v>بوشهر</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>8</v>
+        <v>تهران</v>
       </c>
       <c r="B9" t="str">
         <v>تهران</v>
       </c>
-      <c r="C9" t="str">
-        <v>تهران</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>9</v>
+        <v>چهارمحال و بختیاری</v>
       </c>
       <c r="B10" t="str">
-        <v>چهارمحال و بختیاری</v>
-      </c>
-      <c r="C10" t="str">
-        <v>چهارمحال-بختیاری</v>
+        <v>چهارمحال-و-بختیاری</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>10</v>
+        <v>خراسان جنوبی</v>
       </c>
       <c r="B11" t="str">
-        <v>خراسان جنوبی</v>
-      </c>
-      <c r="C11" t="str">
         <v>خراسان-جنوبی</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>11</v>
+        <v>خراسان رضوی</v>
       </c>
       <c r="B12" t="str">
-        <v>خراسان رضوی</v>
-      </c>
-      <c r="C12" t="str">
         <v>خراسان-رضوی</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>12</v>
+        <v>خراسان شمالی</v>
       </c>
       <c r="B13" t="str">
-        <v>خراسان شمالی</v>
-      </c>
-      <c r="C13" t="str">
         <v>خراسان-شمالی</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>13</v>
+        <v>خوزستان</v>
       </c>
       <c r="B14" t="str">
         <v>خوزستان</v>
       </c>
-      <c r="C14" t="str">
-        <v>خوزستان</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>14</v>
+        <v>زنجان</v>
       </c>
       <c r="B15" t="str">
         <v>زنجان</v>
       </c>
-      <c r="C15" t="str">
-        <v>زنجان</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>15</v>
+        <v>سمنان</v>
       </c>
       <c r="B16" t="str">
         <v>سمنان</v>
       </c>
-      <c r="C16" t="str">
-        <v>سمنان</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16</v>
+        <v>سیستان و بلوچستان</v>
       </c>
       <c r="B17" t="str">
-        <v>سیستان و بلوچستان</v>
-      </c>
-      <c r="C17" t="str">
-        <v>سیستان-بلوچستان</v>
+        <v>سیستان-و-بلوچستان</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>17</v>
+        <v>فارس</v>
       </c>
       <c r="B18" t="str">
         <v>فارس</v>
       </c>
-      <c r="C18" t="str">
-        <v>فارس</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>18</v>
+        <v>قزوین</v>
       </c>
       <c r="B19" t="str">
         <v>قزوین</v>
       </c>
-      <c r="C19" t="str">
-        <v>قزوین</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>19</v>
+        <v>قم</v>
       </c>
       <c r="B20" t="str">
         <v>قم</v>
       </c>
-      <c r="C20" t="str">
-        <v>قم</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20</v>
+        <v>کردستان</v>
       </c>
       <c r="B21" t="str">
         <v>کردستان</v>
       </c>
-      <c r="C21" t="str">
-        <v>کردستان</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>21</v>
+        <v>کرمان</v>
       </c>
       <c r="B22" t="str">
         <v>کرمان</v>
       </c>
-      <c r="C22" t="str">
-        <v>کرمان</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>22</v>
+        <v>کرمانشاه</v>
       </c>
       <c r="B23" t="str">
         <v>کرمانشاه</v>
       </c>
-      <c r="C23" t="str">
-        <v>کرمانشاه</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>23</v>
+        <v>کهگیلویه و بویر احمد</v>
       </c>
       <c r="B24" t="str">
-        <v>کهگیلویه و بویراحم</v>
-      </c>
-      <c r="C24" t="str">
-        <v>کهگیلویه-بویراحمد</v>
+        <v>کهگیلویه-بویر-احمد</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>24</v>
+        <v>گلستان</v>
       </c>
       <c r="B25" t="str">
         <v>گلستان</v>
       </c>
-      <c r="C25" t="str">
-        <v>گلستان</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>25</v>
+        <v>گیلان</v>
       </c>
       <c r="B26" t="str">
         <v>گیلان</v>
       </c>
-      <c r="C26" t="str">
-        <v>گیلان</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>26</v>
+        <v>لرستان</v>
       </c>
       <c r="B27" t="str">
         <v>لرستان</v>
       </c>
-      <c r="C27" t="str">
-        <v>لرستان</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>27</v>
+        <v>مازندران</v>
       </c>
       <c r="B28" t="str">
         <v>مازندران</v>
       </c>
-      <c r="C28" t="str">
-        <v>مازندران</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>28</v>
+        <v>مرکزی</v>
       </c>
       <c r="B29" t="str">
         <v>مرکزی</v>
       </c>
-      <c r="C29" t="str">
-        <v>مرکزی</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>29</v>
+        <v>هرمزگان</v>
       </c>
       <c r="B30" t="str">
         <v>هرمزگان</v>
       </c>
-      <c r="C30" t="str">
-        <v>هرمزگان</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>30</v>
+        <v>همدان</v>
       </c>
       <c r="B31" t="str">
         <v>همدان</v>
       </c>
-      <c r="C31" t="str">
-        <v>همدان</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>31</v>
+        <v>یزد</v>
       </c>
       <c r="B32" t="str">
         <v>یزد</v>
       </c>
-      <c r="C32" t="str">
-        <v>یزد</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B32"/>
   </ignoredErrors>
 </worksheet>
 </file>